--- a/10v10/12/USQ-Cup/TEXAS_KANSAS.xlsx
+++ b/10v10/12/USQ-Cup/TEXAS_KANSAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\USQCup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\12\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F233D4-4A6F-4AE4-8591-08C53446A0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2697FF5-E2E8-4E9C-B854-981902CDCEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>A</t>
   </si>
@@ -98,9 +100,6 @@
   </si>
   <si>
     <t>ED</t>
-  </si>
-  <si>
-    <t>YB0</t>
   </si>
   <si>
     <t>RCA</t>
@@ -195,6 +194,120 @@
   <si>
     <t>RYAN DICKEY</t>
   </si>
+  <si>
+    <t>0440</t>
+  </si>
+  <si>
+    <t>0513</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>0558</t>
+  </si>
+  <si>
+    <t>0629</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0741</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0855</t>
+  </si>
+  <si>
+    <t>0944</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>ELI DORSEY</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>YB0,TB</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>2443</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
 </sst>
 </file>
 
@@ -210,27 +323,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -459,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +641,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -823,15 +944,15 @@
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="24" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$X$59,"RCA"),"*",""),IF(COUNTIF($A$7:$X$59,"OCA"),"^",""),IF(COUNTIF($R$7:$X$59,"2CA"),"!",""))</f>
-        <v>#NAME?</v>
+      <c r="O2" s="27" t="str">
+        <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
+        <v>*</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="16" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O2)*30+L2*10,O2)</f>
-        <v>#NAME?</v>
+      <c r="R2" s="16" t="str">
+        <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
+        <v>140*</v>
       </c>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -894,15 +1015,15 @@
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="24" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$59,"RCB"),"*",""),IF(COUNTIF($A$7:$R$59,"OCB"),"^",""),IF(COUNTIF($A$7:$R$59,"2CB"),"!",""))</f>
-        <v>#NAME?</v>
+      <c r="O4" s="27" t="str">
+        <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
+        <v/>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="16" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O4)*30+L4*10,O4)</f>
-        <v>#NAME?</v>
+      <c r="R4" s="16" t="str">
+        <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
+        <v>40</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -1122,34 +1243,46 @@
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1256,42 +1389,60 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1398,44 +1549,62 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="6"/>
+      <c r="U16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="W16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1542,44 +1711,60 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1684,17 +1869,23 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>3</v>
@@ -1725,7 +1916,7 @@
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="10">
         <v>20</v>
@@ -1734,14 +1925,18 @@
         <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="10">
+        <v>89</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="10">
         <v>17</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
@@ -29029,8 +29224,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29051,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29064,7 +29259,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29072,7 +29267,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29090,7 +29285,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29098,7 +29293,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29106,7 +29301,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29114,7 +29309,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29122,7 +29317,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29130,7 +29325,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29144,7 +29339,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29152,7 +29347,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29160,7 +29355,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29173,7 +29371,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29181,7 +29379,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29189,7 +29387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29197,7 +29395,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29210,10 +29408,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29221,7 +29419,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29229,7 +29427,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29237,7 +29435,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29250,7 +29448,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29258,7 +29456,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29271,7 +29469,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29289,7 +29487,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29337,7 +29535,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29380,7 +29578,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29493,7 +29691,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29501,7 +29699,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29579,7 +29777,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
